--- a/energy/מעודכן 5 לינואר 2025 אנרגיה-חיבור מרחוק.xlsx
+++ b/energy/מעודכן 5 לינואר 2025 אנרגיה-חיבור מרחוק.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36540440-64CE-47C1-BA75-39BADD38A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099E181-7D9F-4810-9071-2C42C9D8DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54BA56CE-7511-41F5-8EA6-18E6B3D4C067}"/>
   </bookViews>
@@ -269,15 +269,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1619252</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92435</xdr:rowOff>
+      <xdr:colOff>1840232</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5575363</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:colOff>5796343</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -306,8 +306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11234091534" y="1849588"/>
-          <a:ext cx="3831867" cy="3956111"/>
+          <a:off x="10984331747" y="2454426"/>
+          <a:ext cx="3711852" cy="3956111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
